--- a/model/tests/test_charIdsConfig.xlsx
+++ b/model/tests/test_charIdsConfig.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>letters</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>ד</t>
+  </si>
+  <si>
+    <t>ֱּ</t>
+  </si>
+  <si>
+    <t>ּ</t>
+  </si>
+  <si>
+    <t>NONE</t>
   </si>
 </sst>
 </file>
@@ -363,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -399,6 +408,19 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model/tests/test_charIdsConfig.xlsx
+++ b/model/tests/test_charIdsConfig.xlsx
@@ -375,7 +375,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
